--- a/design/icyops功能设计.xlsx
+++ b/design/icyops功能设计.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块设计" sheetId="1" r:id="rId1"/>
     <sheet name="用户管理字典" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="资产扫描功能设计" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>一级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,214 @@
   </si>
   <si>
     <t>超级管理员（管理用户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产信息表结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备IP信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh_rsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsa_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh登陆端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh登陆用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私钥密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统类型版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：失败 1：成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -274,14 +482,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -293,12 +523,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -340,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -889,13 +1122,338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/design/icyops功能设计.xlsx
+++ b/design/icyops功能设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>一级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sn_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>host_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,7 +438,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：rsa 2:dsa 3:nomal_user rsa 4:docker 成功 5：docker失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型 1物理服务器 2网络设备 3其它设备 4虚拟设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0：失败 1：成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac地址列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备SN信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿主机上的虚拟机类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,15 +531,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +559,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,7 +601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +636,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,7 +869,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -852,7 +880,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -861,7 +889,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -870,7 +898,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -879,7 +907,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -888,7 +916,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -897,7 +925,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
@@ -908,7 +936,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -917,7 +945,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -926,7 +954,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -935,7 +963,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1125,7 +1153,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G3" sqref="G3:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1134,18 +1162,18 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G1" t="s">
@@ -1153,14 +1181,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G2" t="s">
@@ -1180,14 +1208,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G3" t="s">
@@ -1207,12 +1235,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G4" t="s">
@@ -1224,17 +1252,20 @@
       <c r="I4">
         <v>5</v>
       </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G5" t="s">
@@ -1246,19 +1277,22 @@
       <c r="I5">
         <v>16</v>
       </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G6" t="s">
@@ -1270,17 +1304,20 @@
       <c r="I6">
         <v>24</v>
       </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G7" t="s">
@@ -1292,21 +1329,24 @@
       <c r="I7">
         <v>64</v>
       </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
@@ -1314,17 +1354,20 @@
       <c r="I8">
         <v>24</v>
       </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G9" t="s">
@@ -1336,19 +1379,22 @@
       <c r="I9">
         <v>64</v>
       </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="G10" t="s">
         <v>89</v>
       </c>
@@ -1358,39 +1404,51 @@
       <c r="I10">
         <v>64</v>
       </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="G11" t="s">
         <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="G12" t="s">
         <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1401,7 +1459,13 @@
         <v>81</v>
       </c>
       <c r="I13">
-        <v>64</v>
+        <v>256</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1414,18 +1478,30 @@
       <c r="I14">
         <v>64</v>
       </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G15" t="s">
         <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G16" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
@@ -1433,16 +1509,28 @@
       <c r="I16">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
         <v>81</v>
       </c>
       <c r="I17">
         <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1454,6 +1542,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/icyops功能设计.xlsx
+++ b/design/icyops功能设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块设计" sheetId="1" r:id="rId1"/>
     <sheet name="用户管理字典" sheetId="2" r:id="rId2"/>
     <sheet name="资产扫描功能设计" sheetId="3" r:id="rId3"/>
+    <sheet name="资产扫描功能实现" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
   <si>
     <t>一级模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +472,126 @@
   </si>
   <si>
     <t>宿主机上的虚拟机类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程scanhosts作为资产扫描功能的实现工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因在后台直接执行工程，故需要额外的setting文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.py作为程序执行文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取配置文件、扫描主机和网络信息、梳理信息、docker与宿主机的关系，KVM虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scanhosts.yaml配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置网络、系统、设备等扫描需要的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util/nmap_all_server.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统主机扫描功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描存活主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描主机的ssh服务端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试ssh登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试docker ssh登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试密钥key登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询系统名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询其它SNMP信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络设备登录功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util/tools.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现扫描指定VMX的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现扫描指定KVM的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现扫描指定DOCKER的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现扫描指定网段网络设备等功能的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现扫描指定网段主机等功能的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util/j_filter.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现各种过滤功能的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util/get_pv_relation.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机类型查询类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -540,6 +661,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1544,4 +1674,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="7"/>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>